--- a/Data/SM_Data.xlsx
+++ b/Data/SM_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maudevernet/Dropbox/Sihek_Maude/Maude_thesis/supplementary material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maudevernet/Dropbox/Sihek_Maude/EICAT_manuscript/SM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85EE49B-7DD2-D248-ACBF-F270CFC7C65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA49FF5-7440-904B-A38B-1EC699702DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="840" windowWidth="21960" windowHeight="15720" activeTab="3" xr2:uid="{25F8D62A-916F-4DDD-935E-D9783A518220}"/>
+    <workbookView xWindow="4340" yWindow="840" windowWidth="21960" windowHeight="15720" activeTab="3" xr2:uid="{25F8D62A-916F-4DDD-935E-D9783A518220}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>Massive</t>
   </si>
   <si>
-    <t>Uncertainty</t>
+    <t>Guam</t>
   </si>
   <si>
-    <t>Guam</t>
+    <t>Confidence</t>
   </si>
 </sst>
 </file>
@@ -88,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -141,21 +141,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -169,64 +160,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -235,16 +174,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AECA80-F73E-49EF-9667-F9C2CE5E64A3}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A2:A37"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -711,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -849,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>100</v>
@@ -987,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>70</v>
@@ -1125,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>70</v>
@@ -1263,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
@@ -1401,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
         <v>80</v>
@@ -1429,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871A4E18-0B87-4CBF-AAA9-2E653A665930}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A2:A49"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1581,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>50</v>
@@ -1719,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>50</v>
@@ -1857,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>100</v>
@@ -1891,7 +1828,7 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>5</v>
       </c>
       <c r="G20" s="2">
@@ -1914,7 +1851,7 @@
       <c r="E21" s="2">
         <v>10</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>25</v>
       </c>
       <c r="G21" s="2">
@@ -1937,7 +1874,7 @@
       <c r="E22" s="2">
         <v>50</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>55</v>
       </c>
       <c r="G22" s="2">
@@ -1960,7 +1897,7 @@
       <c r="E23" s="2">
         <v>30</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>15</v>
       </c>
       <c r="G23" s="2">
@@ -1983,7 +1920,7 @@
       <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="2">
@@ -1995,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>75</v>
@@ -2133,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>70</v>
@@ -2271,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
@@ -2409,7 +2346,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3">
         <v>80</v>
@@ -2547,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3">
         <v>80</v>
@@ -2576,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC15B77-A4A7-414F-B155-0A512619E4B6}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2586,749 +2523,749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9">
+        <v>100</v>
+      </c>
+      <c r="G2" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>100</v>
+      </c>
+      <c r="E7" s="10">
+        <v>100</v>
+      </c>
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="9">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10">
+        <v>50</v>
+      </c>
+      <c r="G13" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>99</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>99</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>99</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <v>99</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10">
         <v>95</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="10">
         <v>95</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <v>95</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <v>95</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="8">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2">
-        <v>100</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="C20" s="9">
+        <v>100</v>
+      </c>
+      <c r="D20" s="9">
+        <v>100</v>
+      </c>
+      <c r="E20" s="9">
+        <v>100</v>
+      </c>
+      <c r="F20" s="9">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="8">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="8">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="8">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3">
-        <v>100</v>
-      </c>
-      <c r="E25" s="3">
-        <v>100</v>
-      </c>
-      <c r="F25" s="3">
-        <v>100</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10">
+        <v>100</v>
+      </c>
+      <c r="D25" s="10">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10">
+        <v>100</v>
+      </c>
+      <c r="F25" s="10">
+        <v>100</v>
+      </c>
+      <c r="G25" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="8">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>90</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <v>90</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="9">
         <v>90</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
         <v>90</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="8">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9">
+        <v>10</v>
+      </c>
+      <c r="G27" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="8">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="A29" s="8">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="8">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10">
         <v>70</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="10">
         <v>70</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="10">
         <v>70</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>70</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="10">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5">
-        <v>100</v>
-      </c>
-      <c r="D32" s="6">
-        <v>100</v>
-      </c>
-      <c r="E32" s="6">
-        <v>100</v>
-      </c>
-      <c r="F32" s="6">
-        <v>100</v>
-      </c>
-      <c r="G32" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C32" s="9">
+        <v>100</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9">
+        <v>100</v>
+      </c>
+      <c r="F32" s="9">
+        <v>100</v>
+      </c>
+      <c r="G32" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>0</v>
       </c>
       <c r="D33" s="9">
@@ -3340,18 +3277,18 @@
       <c r="F33" s="9">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="G33" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>0</v>
       </c>
       <c r="D34" s="9">
@@ -3363,18 +3300,18 @@
       <c r="F34" s="9">
         <v>0</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="B35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="9">
         <v>0</v>
       </c>
       <c r="D35" s="9">
@@ -3386,53 +3323,53 @@
       <c r="F35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="G35" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="11">
-        <v>100</v>
-      </c>
-      <c r="D37" s="11">
-        <v>100</v>
-      </c>
-      <c r="E37" s="11">
-        <v>100</v>
-      </c>
-      <c r="F37" s="11">
-        <v>100</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="B37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="10">
+        <v>100</v>
+      </c>
+      <c r="D37" s="10">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10">
+        <v>100</v>
+      </c>
+      <c r="F37" s="10">
+        <v>100</v>
+      </c>
+      <c r="G37" s="10">
         <v>25</v>
       </c>
     </row>
@@ -3447,7 +3384,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3479,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3489,22 +3426,22 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="6">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6">
         <v>30</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>30</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="6">
         <v>30</v>
       </c>
-      <c r="G2" s="12">
-        <v>20</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="G2" s="6">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6">
         <v>30</v>
       </c>
     </row>
@@ -3515,22 +3452,22 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12">
-        <v>20</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
         <v>30</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>30</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="12">
-        <v>20</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="6">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6">
         <v>30</v>
       </c>
     </row>
@@ -3541,22 +3478,22 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
-        <v>20</v>
-      </c>
-      <c r="D4" s="12">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12">
-        <v>20</v>
-      </c>
-      <c r="F4" s="12">
-        <v>20</v>
-      </c>
-      <c r="G4" s="12">
-        <v>20</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
         <v>20</v>
       </c>
     </row>
@@ -3567,22 +3504,22 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12">
-        <v>20</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3593,22 +3530,22 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12">
-        <v>20</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
         <v>10</v>
       </c>
     </row>
@@ -3617,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
@@ -3773,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>50</v>
@@ -3929,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>60</v>
@@ -4085,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>90</v>
@@ -4241,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>90</v>
